--- a/DaZhongTransitionLiquidation/Template/财务打印样式模板.xlsx
+++ b/DaZhongTransitionLiquidation/Template/财务打印样式模板.xlsx
@@ -25,10 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>会计期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9月-2019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>币  种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RMB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,23 +96,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&amp;=[VoucherReport].LoanMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[VoucherReport].Abstract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计期:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币  种:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&amp;=[VoucherReport].BorrowMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[VoucherReport].LoanMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[VoucherReport].Abstract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +171,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -276,14 +283,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,14 +316,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -309,25 +337,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,7 +629,7 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="P7" sqref="P7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -622,29 +638,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
       <c r="V1" s="3"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -657,33 +673,33 @@
     <row r="2" spans="1:29" ht="14.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="N2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
       <c r="V2" s="3"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -696,203 +712,203 @@
     <row r="3" spans="1:29" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
+      <c r="N3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="19">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="16">
         <v>43710</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
-        <v>25</v>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8" t="s">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:29" ht="35.25" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="24"/>
+      <c r="U6" s="25"/>
     </row>
     <row r="7" spans="1:29" ht="23.25" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="13"/>
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="25"/>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="G7:O7"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="P8:R8"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="S7:U7"/>
+    <mergeCell ref="G7:O7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="P6:R6"/>

--- a/DaZhongTransitionLiquidation/Template/财务打印样式模板.xlsx
+++ b/DaZhongTransitionLiquidation/Template/财务打印样式模板.xlsx
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -292,33 +292,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -336,15 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,7 +632,7 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:R7"/>
+      <selection activeCell="P2" sqref="P2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -638,29 +641,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
       <c r="V1" s="3"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -673,33 +676,33 @@
     <row r="2" spans="1:29" ht="14.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="12" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="3"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -712,184 +715,184 @@
     <row r="3" spans="1:29" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="12" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
     </row>
     <row r="4" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="16">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="17">
         <v>43710</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="18"/>
       <c r="T4" s="7"/>
       <c r="U4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="10" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10" t="s">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
     </row>
     <row r="6" spans="1:29" ht="35.25" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="23" t="s">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="24"/>
-      <c r="U6" s="25"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:29" ht="23.25" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="25"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
       <c r="S8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -909,19 +912,19 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="G6:O6"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="P6:R6"/>
     <mergeCell ref="S6:U6"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="A4:J4"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:U3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="R4:S4"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P6:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
